--- a/Documents/労金AML_ビートル設定（個人）20250712.xlsx
+++ b/Documents/労金AML_ビートル設定（個人）20250712.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02.開発\01.VisualStudio\net80\労働金庫連合会\01.AML業務\管理ツール\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04.VisualStudio\ろうきん\AML業務\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90886D0-B881-4971-8EA6-081839F32DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7620" yWindow="990" windowWidth="19275" windowHeight="14250"/>
+    <workbookView xWindow="9255" yWindow="570" windowWidth="17715" windowHeight="14685" firstSheet="4" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ビートル項目" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <sheet name="20.納品対象抽出" sheetId="5" r:id="rId6"/>
     <sheet name="30.金庫事務用対象抽出" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1703,7 +1704,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -2181,10 +2182,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75"/>
   <cols>
@@ -5171,11 +5174,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75"/>
@@ -5252,18 +5255,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="2.625" style="13"/>
     <col min="2" max="2" width="18.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5" style="13" customWidth="1"/>
     <col min="4" max="16384" width="2.625" style="13"/>
   </cols>
   <sheetData>
@@ -5312,7 +5315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5742,7 +5745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:D75"/>
   <sheetViews>
     <sheetView topLeftCell="A48" workbookViewId="0">
@@ -6579,7 +6582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:D110"/>
   <sheetViews>
     <sheetView topLeftCell="A81" workbookViewId="0">
@@ -7801,7 +7804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:D110"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Documents/労金AML_ビートル設定（個人）20250712.xlsx
+++ b/Documents/労金AML_ビートル設定（個人）20250712.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04.VisualStudio\ろうきん\AML業務\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90886D0-B881-4971-8EA6-081839F32DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE59E1F-E264-4FB8-97FB-95A519080360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9255" yWindow="570" windowWidth="17715" windowHeight="14685" firstSheet="4" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2655" yWindow="1485" windowWidth="24435" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ビートル項目" sheetId="1" r:id="rId1"/>
@@ -1504,13 +1504,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>個人_30_金庫事務用_</t>
-    <rPh sb="0" eb="2">
-      <t>コジン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ステータス名</t>
     <rPh sb="5" eb="6">
       <t>メイ</t>
@@ -1698,6 +1691,16 @@
   </si>
   <si>
     <t>BPO_在席資格（名称連携）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>個人_30_金庫事務用対象_</t>
+    <rPh sb="0" eb="2">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タイショウ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2185,8 +2188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75"/>
@@ -2306,7 +2309,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>223</v>
@@ -2333,7 +2336,7 @@
         <v>430</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>224</v>
@@ -2360,7 +2363,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>225</v>
@@ -2387,7 +2390,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>226</v>
@@ -2414,7 +2417,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>228</v>
@@ -2441,7 +2444,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>229</v>
@@ -2468,7 +2471,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>230</v>
@@ -2495,7 +2498,7 @@
         <v>15</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>231</v>
@@ -2522,7 +2525,7 @@
         <v>17</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>232</v>
@@ -2549,7 +2552,7 @@
         <v>19</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>233</v>
@@ -2576,7 +2579,7 @@
         <v>21</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>234</v>
@@ -2603,7 +2606,7 @@
         <v>23</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>235</v>
@@ -2630,7 +2633,7 @@
         <v>25</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>236</v>
@@ -2657,7 +2660,7 @@
         <v>27</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>237</v>
@@ -2684,7 +2687,7 @@
         <v>29</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>238</v>
@@ -2711,7 +2714,7 @@
         <v>31</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>239</v>
@@ -2738,7 +2741,7 @@
         <v>33</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>240</v>
@@ -2765,7 +2768,7 @@
         <v>35</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>241</v>
@@ -2792,7 +2795,7 @@
         <v>37</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>242</v>
@@ -2819,7 +2822,7 @@
         <v>39</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>243</v>
@@ -2846,7 +2849,7 @@
         <v>41</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>244</v>
@@ -2873,7 +2876,7 @@
         <v>43</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>245</v>
@@ -2900,7 +2903,7 @@
         <v>45</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>246</v>
@@ -2927,7 +2930,7 @@
         <v>47</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>247</v>
@@ -2954,7 +2957,7 @@
         <v>49</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>248</v>
@@ -2981,7 +2984,7 @@
         <v>51</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>249</v>
@@ -3008,7 +3011,7 @@
         <v>53</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>250</v>
@@ -3035,7 +3038,7 @@
         <v>55</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>251</v>
@@ -3062,7 +3065,7 @@
         <v>57</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>252</v>
@@ -3089,7 +3092,7 @@
         <v>59</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>253</v>
@@ -3116,7 +3119,7 @@
         <v>61</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>254</v>
@@ -3143,7 +3146,7 @@
         <v>63</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>256</v>
@@ -3170,7 +3173,7 @@
         <v>65</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F38" s="9" t="s">
         <v>257</v>
@@ -3197,7 +3200,7 @@
         <v>67</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F39" s="9" t="s">
         <v>259</v>
@@ -3262,13 +3265,13 @@
         <v>1</v>
       </c>
       <c r="H41" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="I41" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="I41" s="4" t="s">
-        <v>442</v>
-      </c>
       <c r="J41" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="42" spans="2:10">
@@ -3292,7 +3295,7 @@
         <v>28</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J42" s="4" t="s">
         <v>258</v>
@@ -3319,7 +3322,7 @@
         <v>378</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>258</v>
@@ -3397,13 +3400,13 @@
         <v>1</v>
       </c>
       <c r="H46" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="I46" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="I46" s="4" t="s">
-        <v>442</v>
-      </c>
       <c r="J46" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="47" spans="2:10">
@@ -3451,13 +3454,13 @@
         <v>2</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="49" spans="2:10">
@@ -3481,7 +3484,7 @@
         <v>128</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J49" s="4" t="s">
         <v>258</v>
@@ -3508,7 +3511,7 @@
         <v>128</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J50" s="4" t="s">
         <v>258</v>
@@ -3532,10 +3535,10 @@
         <v>64</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J51" s="4" t="s">
         <v>258</v>
@@ -3586,7 +3589,7 @@
         <v>92</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>262</v>
@@ -3640,7 +3643,7 @@
         <v>84</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>262</v>
@@ -3751,10 +3754,10 @@
         <v>1</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="60" spans="2:10">
@@ -3778,10 +3781,10 @@
         <v>1</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="61" spans="2:10">
@@ -3805,10 +3808,10 @@
         <v>2</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="62" spans="2:10">
@@ -3832,10 +3835,10 @@
         <v>2</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="63" spans="2:10">
@@ -3859,10 +3862,10 @@
         <v>2</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="64" spans="2:10">
@@ -3886,10 +3889,10 @@
         <v>2</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="65" spans="2:10">
@@ -3913,10 +3916,10 @@
         <v>2</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="66" spans="2:10">
@@ -3940,10 +3943,10 @@
         <v>2</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="67" spans="2:10">
@@ -3967,10 +3970,10 @@
         <v>2</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="68" spans="2:10">
@@ -3994,10 +3997,10 @@
         <v>2</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="69" spans="2:10">
@@ -4021,10 +4024,10 @@
         <v>2</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="70" spans="2:10">
@@ -4048,10 +4051,10 @@
         <v>2</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="71" spans="2:10">
@@ -4075,10 +4078,10 @@
         <v>2</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="72" spans="2:10">
@@ -4183,10 +4186,10 @@
         <v>2</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="76" spans="2:10">
@@ -4237,7 +4240,7 @@
         <v>40</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J77" s="4" t="s">
         <v>258</v>
@@ -4264,7 +4267,7 @@
         <v>411</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J78" s="4" t="s">
         <v>258</v>
@@ -4372,7 +4375,7 @@
         <v>20</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J82" s="4" t="s">
         <v>258</v>
@@ -4399,7 +4402,7 @@
         <v>1</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J83" s="4" t="s">
         <v>263</v>
@@ -4480,10 +4483,10 @@
         <v>3</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="87" spans="2:10">
@@ -4507,10 +4510,10 @@
         <v>3</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="88" spans="2:10">
@@ -4534,10 +4537,10 @@
         <v>3</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="89" spans="2:10">
@@ -4561,10 +4564,10 @@
         <v>3</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="90" spans="2:10">
@@ -4588,10 +4591,10 @@
         <v>3</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="91" spans="2:10">
@@ -4615,10 +4618,10 @@
         <v>4</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="92" spans="2:10">
@@ -4642,7 +4645,7 @@
         <v>40</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J92" s="4" t="s">
         <v>258</v>
@@ -4669,10 +4672,10 @@
         <v>1</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="94" spans="2:10">
@@ -4696,10 +4699,10 @@
         <v>1</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="95" spans="2:10">
@@ -4723,10 +4726,10 @@
         <v>1</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="96" spans="2:10">
@@ -4750,10 +4753,10 @@
         <v>1</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="97" spans="2:10">
@@ -4777,10 +4780,10 @@
         <v>1</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="98" spans="2:10">
@@ -4804,10 +4807,10 @@
         <v>1</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="99" spans="2:10">
@@ -4831,10 +4834,10 @@
         <v>1</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="100" spans="2:10">
@@ -4858,10 +4861,10 @@
         <v>1</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="101" spans="2:10">
@@ -4885,10 +4888,10 @@
         <v>1</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="102" spans="2:10">
@@ -4912,10 +4915,10 @@
         <v>1</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="103" spans="2:10">
@@ -4939,10 +4942,10 @@
         <v>1</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="104" spans="2:10">
@@ -4966,10 +4969,10 @@
         <v>1</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="105" spans="2:10">
@@ -4993,10 +4996,10 @@
         <v>1</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="106" spans="2:10">
@@ -5020,10 +5023,10 @@
         <v>1</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="107" spans="2:10">
@@ -5047,10 +5050,10 @@
         <v>1</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="108" spans="2:10">
@@ -5074,10 +5077,10 @@
         <v>2</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="109" spans="2:10">
@@ -5101,10 +5104,10 @@
         <v>2</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="110" spans="2:10">
@@ -5131,7 +5134,7 @@
         <v>262</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="111" spans="2:10">
@@ -5155,10 +5158,10 @@
         <v>36</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J111" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -5258,8 +5261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75"/>
@@ -5272,10 +5275,10 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>436</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="3" spans="2:3">
@@ -5305,7 +5308,7 @@
         <v>345</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>435</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>
@@ -5799,7 +5802,7 @@
         <v>353</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>73</v>
@@ -6636,7 +6639,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>4</v>
@@ -7858,7 +7861,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>4</v>
